--- a/r_list_5.xlsx
+++ b/r_list_5.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1257,7 +1257,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>870350</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>849116</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +1279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2096,7 +2104,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1263904</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1333786</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2935,7 +2951,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>134153</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>132363</v>
       </c>
     </row>
   </sheetData>
@@ -2949,7 +2973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3774,7 +3798,15 @@
         <v>45965</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>161188</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B103" t="n">
+        <v>159638</v>
       </c>
     </row>
   </sheetData>

--- a/r_list_5.xlsx
+++ b/r_list_5.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1268,6 +1268,22 @@
         <v>849116</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>832079</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1279,7 +1295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2115,6 +2131,22 @@
         <v>1333786</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1317194</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2126,7 +2158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2962,6 +2994,22 @@
         <v>132363</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>125092</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2973,7 +3021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3809,6 +3857,22 @@
         <v>159638</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>158092</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_5.xlsx
+++ b/r_list_5.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="카카오" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NAVER" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="농심" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="엔씨소프트" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="삼양식품" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="엔씨소프트" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,7 +1282,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>884360</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>884327</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>919516</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>872304</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>895098</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>835105</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2144,7 +2185,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1340259</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1343051</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1377485</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1376852</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1356725</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1248374</v>
       </c>
     </row>
   </sheetData>
@@ -2158,7 +2239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3007,7 +3088,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>121095</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>122966</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>121414</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>120949</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>122408</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>112458</v>
       </c>
     </row>
   </sheetData>
@@ -3021,7 +3142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3043,6 +3164,837 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B2" t="n">
+        <v>399273</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B3" t="n">
+        <v>408211</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B4" t="n">
+        <v>392950</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B5" t="n">
+        <v>381677</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B6" t="n">
+        <v>385015</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B7" t="n">
+        <v>383111</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B8" t="n">
+        <v>362383</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B9" t="n">
+        <v>358188</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B10" t="n">
+        <v>348406</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B11" t="n">
+        <v>340890</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B12" t="n">
+        <v>334454</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B13" t="n">
+        <v>354397</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B14" t="n">
+        <v>383996</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B15" t="n">
+        <v>419990</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B16" t="n">
+        <v>392840</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B17" t="n">
+        <v>398197</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B18" t="n">
+        <v>381192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B19" t="n">
+        <v>382606</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B20" t="n">
+        <v>378815</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B21" t="n">
+        <v>343739</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B22" t="n">
+        <v>312748</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B23" t="n">
+        <v>319175</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B24" t="n">
+        <v>311450</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B25" t="n">
+        <v>324789</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B26" t="n">
+        <v>323229</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B27" t="n">
+        <v>327777</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B28" t="n">
+        <v>321580</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B29" t="n">
+        <v>325458</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B30" t="n">
+        <v>312229</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B31" t="n">
+        <v>338290</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B32" t="n">
+        <v>331328</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B33" t="n">
+        <v>328102</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B34" t="n">
+        <v>329759</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B35" t="n">
+        <v>332494</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B36" t="n">
+        <v>335131</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B37" t="n">
+        <v>339676</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B38" t="n">
+        <v>355615</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B39" t="n">
+        <v>343819</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B40" t="n">
+        <v>332178</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B41" t="n">
+        <v>319782</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B42" t="n">
+        <v>318901</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B43" t="n">
+        <v>322134</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B44" t="n">
+        <v>302183</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B45" t="n">
+        <v>301770</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B46" t="n">
+        <v>318928</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B47" t="n">
+        <v>327600</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B48" t="n">
+        <v>362643</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B49" t="n">
+        <v>368604</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B50" t="n">
+        <v>380595</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B51" t="n">
+        <v>371477</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B52" t="n">
+        <v>378666</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B53" t="n">
+        <v>381118</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B54" t="n">
+        <v>386688</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B55" t="n">
+        <v>378468</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B56" t="n">
+        <v>371630</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B57" t="n">
+        <v>372378</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B58" t="n">
+        <v>340353</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B59" t="n">
+        <v>345246</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B60" t="n">
+        <v>371847</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B61" t="n">
+        <v>363922</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B62" t="n">
+        <v>358233</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B63" t="n">
+        <v>348172</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B64" t="n">
+        <v>348733</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B65" t="n">
+        <v>361364</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B66" t="n">
+        <v>376191</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B67" t="n">
+        <v>373961</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B68" t="n">
+        <v>365016</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B69" t="n">
+        <v>376606</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B70" t="n">
+        <v>357990</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B71" t="n">
+        <v>336907</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B72" t="n">
+        <v>345605</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B73" t="n">
+        <v>352982</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B74" t="n">
+        <v>363509</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B75" t="n">
+        <v>355896</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B76" t="n">
+        <v>342103</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B77" t="n">
+        <v>323791</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B78" t="n">
+        <v>315268</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B79" t="n">
+        <v>320009</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B80" t="n">
+        <v>309390</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B81" t="n">
+        <v>302922</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B82" t="n">
+        <v>353564</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B83" t="n">
+        <v>311931</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B84" t="n">
+        <v>297880</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B85" t="n">
+        <v>295438</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B86" t="n">
+        <v>296621</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B87" t="n">
+        <v>294470</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B88" t="n">
+        <v>287977</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B89" t="n">
+        <v>272080</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B90" t="n">
+        <v>289544</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B91" t="n">
+        <v>286219</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B92" t="n">
+        <v>268234</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B93" t="n">
+        <v>279148</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B94" t="n">
+        <v>279945</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B95" t="n">
+        <v>274300</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B96" t="n">
+        <v>273894</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B97" t="n">
+        <v>274586</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B98" t="n">
+        <v>269812</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B99" t="n">
+        <v>270550</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B100" t="n">
+        <v>299492</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B101" t="n">
+        <v>275854</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>remn_amt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45817</v>
       </c>
       <c r="B2" t="n">
@@ -3870,7 +4822,47 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>164764</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>173526</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>175556</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>190467</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>179884</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>169151</v>
       </c>
     </row>
   </sheetData>

--- a/r_list_5.xlsx
+++ b/r_list_5.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1325,6 +1325,14 @@
         <v>835105</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>811335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1336,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2228,6 +2236,14 @@
         <v>1248374</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1300145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2239,7 +2255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3131,6 +3147,14 @@
         <v>112458</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>122228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3142,7 +3166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3962,6 +3986,14 @@
         <v>275854</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B102" t="n">
+        <v>289025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3973,7 +4005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4865,6 +4897,14 @@
         <v>169151</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>171022</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_5.xlsx
+++ b/r_list_5.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1333,6 +1333,14 @@
         <v>811335</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>765535</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1344,7 +1352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2244,6 +2252,14 @@
         <v>1300145</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1270191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2255,7 +2271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3155,6 +3171,14 @@
         <v>122228</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>121263</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3166,7 +3190,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3994,6 +4018,14 @@
         <v>289025</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B103" t="n">
+        <v>307733</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4005,7 +4037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4905,6 +4937,14 @@
         <v>171022</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>196800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_5.xlsx
+++ b/r_list_5.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1341,6 +1341,14 @@
         <v>765535</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>774825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1352,7 +1360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2260,6 +2268,14 @@
         <v>1270191</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1219100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2271,7 +2287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3179,6 +3195,14 @@
         <v>121263</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>121059</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3190,7 +3214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4026,6 +4050,14 @@
         <v>307733</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B104" t="n">
+        <v>353442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4037,7 +4069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4945,6 +4977,14 @@
         <v>196800</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>212415</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_5.xlsx
+++ b/r_list_5.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1349,6 +1349,14 @@
         <v>774825</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>774347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1360,7 +1368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2276,6 +2284,14 @@
         <v>1219100</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1279264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2287,7 +2303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3203,6 +3219,14 @@
         <v>121059</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>123032</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3214,7 +3238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4058,6 +4082,14 @@
         <v>353442</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B105" t="n">
+        <v>358599</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4069,7 +4101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4985,6 +5017,14 @@
         <v>212415</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>226182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_5.xlsx
+++ b/r_list_5.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1357,6 +1357,14 @@
         <v>774347</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>777104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1368,7 +1376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2292,6 +2300,14 @@
         <v>1279264</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1294476</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2303,7 +2319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3227,6 +3243,14 @@
         <v>123032</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>124226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3238,7 +3262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4090,6 +4114,14 @@
         <v>358599</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B106" t="n">
+        <v>354786</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4101,7 +4133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5025,6 +5057,14 @@
         <v>226182</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>232095</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_5.xlsx
+++ b/r_list_5.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1365,6 +1365,22 @@
         <v>777104</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>786542</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>776488</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1376,7 +1392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2308,6 +2324,22 @@
         <v>1294476</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1322255</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1303364</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2319,7 +2351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3251,6 +3283,22 @@
         <v>124226</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>111509</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>114145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3262,7 +3310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4122,6 +4170,22 @@
         <v>354786</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B107" t="n">
+        <v>349793</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B108" t="n">
+        <v>367451</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4133,7 +4197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5065,6 +5129,22 @@
         <v>232095</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>238474</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>264652</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_5.xlsx
+++ b/r_list_5.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1381,6 +1381,14 @@
         <v>776488</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>809328</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1392,7 +1400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2340,6 +2348,14 @@
         <v>1303364</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1379950</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2351,7 +2367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3299,6 +3315,14 @@
         <v>114145</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>116474</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3310,7 +3334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4186,6 +4210,14 @@
         <v>367451</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B109" t="n">
+        <v>401455</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4197,7 +4229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5145,6 +5177,14 @@
         <v>264652</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>263588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_5.xlsx
+++ b/r_list_5.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1389,6 +1389,22 @@
         <v>809328</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>721900</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1400,7 +1416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,6 +2372,22 @@
         <v>1379950</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1332180</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2367,7 +2399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3323,6 +3355,22 @@
         <v>116474</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>115414</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3334,7 +3382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4218,6 +4266,22 @@
         <v>401455</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B110" t="n">
+        <v>439555</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4229,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5185,6 +5249,22 @@
         <v>263588</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>248197</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_5.xlsx
+++ b/r_list_5.xlsx
@@ -12,6 +12,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="농심" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="삼양식품" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="엔씨소프트" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="데브시스터즈" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="크래프톤" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="넷마블" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1402,7 +1405,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>688887</v>
       </c>
     </row>
   </sheetData>
@@ -2385,7 +2388,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1282494</v>
       </c>
     </row>
   </sheetData>
@@ -3368,7 +3371,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>111881</v>
       </c>
     </row>
   </sheetData>
@@ -4279,7 +4282,7 @@
         <v>45989</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>459692</v>
       </c>
     </row>
   </sheetData>
@@ -5262,7 +5265,2500 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>238019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>remn_amt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B2" t="n">
+        <v>19896</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B3" t="n">
+        <v>19118</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19491</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B5" t="n">
+        <v>19454</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20749</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20258</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20140</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20484</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20267</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20232</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19566</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19661</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B15" t="n">
+        <v>19917</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19927</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19927</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B18" t="n">
+        <v>19479</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B19" t="n">
+        <v>19619</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20106</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20019</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B22" t="n">
+        <v>19592</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20939</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B24" t="n">
+        <v>21008</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B25" t="n">
+        <v>21647</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B26" t="n">
+        <v>23810</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B27" t="n">
+        <v>23709</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B28" t="n">
+        <v>22212</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B29" t="n">
+        <v>21215</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20023</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B31" t="n">
+        <v>19444</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B32" t="n">
+        <v>22829</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B33" t="n">
+        <v>21838</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B34" t="n">
+        <v>21291</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B35" t="n">
+        <v>21983</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B36" t="n">
+        <v>22143</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B37" t="n">
+        <v>22316</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B38" t="n">
+        <v>22609</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B39" t="n">
+        <v>22783</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B40" t="n">
+        <v>22559</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B41" t="n">
+        <v>22291</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B42" t="n">
+        <v>22023</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B43" t="n">
+        <v>23408</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B44" t="n">
+        <v>23349</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B45" t="n">
+        <v>23047</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B46" t="n">
+        <v>23055</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B47" t="n">
+        <v>22787</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B48" t="n">
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B49" t="n">
+        <v>23435</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B50" t="n">
+        <v>22668</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B51" t="n">
+        <v>24976</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B52" t="n">
+        <v>23821</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B53" t="n">
+        <v>24071</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B54" t="n">
+        <v>24595</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B55" t="n">
+        <v>24234</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B56" t="n">
+        <v>24246</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B57" t="n">
+        <v>25532</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B58" t="n">
+        <v>25106</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B59" t="n">
+        <v>23761</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B60" t="n">
+        <v>23217</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B61" t="n">
+        <v>22288</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B62" t="n">
+        <v>22437</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B63" t="n">
+        <v>22216</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B64" t="n">
+        <v>22101</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B65" t="n">
+        <v>21795</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B66" t="n">
+        <v>21541</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B67" t="n">
+        <v>21191</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B68" t="n">
+        <v>20705</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B69" t="n">
+        <v>21177</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B70" t="n">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B71" t="n">
+        <v>21984</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B72" t="n">
+        <v>23768</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B73" t="n">
+        <v>23026</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B74" t="n">
+        <v>22493</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B75" t="n">
+        <v>22146</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B76" t="n">
+        <v>22042</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B77" t="n">
+        <v>21964</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B78" t="n">
+        <v>21698</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B79" t="n">
+        <v>21212</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B80" t="n">
+        <v>21273</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B81" t="n">
+        <v>20823</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B82" t="n">
+        <v>20060</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B83" t="n">
+        <v>19823</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B84" t="n">
+        <v>19286</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B85" t="n">
+        <v>18515</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B86" t="n">
+        <v>18053</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B87" t="n">
+        <v>18510</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B88" t="n">
+        <v>17921</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B89" t="n">
+        <v>18387</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B90" t="n">
+        <v>17615</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B91" t="n">
+        <v>17197</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B92" t="n">
+        <v>16717</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B93" t="n">
+        <v>16097</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B94" t="n">
+        <v>15724</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B95" t="n">
+        <v>15700</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B96" t="n">
+        <v>14974</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B97" t="n">
+        <v>14781</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B98" t="n">
+        <v>14456</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B99" t="n">
+        <v>14651</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B100" t="n">
+        <v>15431</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B101" t="n">
+        <v>15954</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>remn_amt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B2" t="n">
+        <v>468457</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B3" t="n">
+        <v>463771</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B4" t="n">
+        <v>451251</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B5" t="n">
+        <v>460008</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B6" t="n">
+        <v>441018</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B7" t="n">
+        <v>455127</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B8" t="n">
+        <v>449943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B9" t="n">
+        <v>442342</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B10" t="n">
+        <v>423467</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B11" t="n">
+        <v>430994</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B12" t="n">
+        <v>433301</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B13" t="n">
+        <v>433040</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B14" t="n">
+        <v>428122</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B15" t="n">
+        <v>378928</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B16" t="n">
+        <v>371734</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B17" t="n">
+        <v>369884</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B18" t="n">
+        <v>368378</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B19" t="n">
+        <v>353578</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B20" t="n">
+        <v>340792</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B21" t="n">
+        <v>368526</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B22" t="n">
+        <v>329850</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B23" t="n">
+        <v>326827</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B24" t="n">
+        <v>326079</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B25" t="n">
+        <v>347753</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B26" t="n">
+        <v>354087</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B27" t="n">
+        <v>342811</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B28" t="n">
+        <v>344999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B29" t="n">
+        <v>340086</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B30" t="n">
+        <v>325281</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B31" t="n">
+        <v>328478</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B32" t="n">
+        <v>322435</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B33" t="n">
+        <v>338730</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B34" t="n">
+        <v>322423</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B35" t="n">
+        <v>313328</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B36" t="n">
+        <v>307563</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B37" t="n">
+        <v>307702</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B38" t="n">
+        <v>319379</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B39" t="n">
+        <v>320513</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B40" t="n">
+        <v>308769</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B41" t="n">
+        <v>302851</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B42" t="n">
+        <v>305259</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B43" t="n">
+        <v>296458</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B44" t="n">
+        <v>291694</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B45" t="n">
+        <v>292465</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B46" t="n">
+        <v>283976</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B47" t="n">
+        <v>275671</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B48" t="n">
+        <v>269510</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B49" t="n">
+        <v>268587</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B50" t="n">
+        <v>269171</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B51" t="n">
+        <v>264002</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B52" t="n">
+        <v>262534</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B53" t="n">
+        <v>255965</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B54" t="n">
+        <v>242152</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B55" t="n">
+        <v>243344</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B56" t="n">
+        <v>242687</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B57" t="n">
+        <v>237987</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B58" t="n">
+        <v>264935</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B59" t="n">
+        <v>232639</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B60" t="n">
+        <v>232025</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B61" t="n">
+        <v>230273</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B62" t="n">
+        <v>229525</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B63" t="n">
+        <v>228348</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B64" t="n">
+        <v>235193</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B65" t="n">
+        <v>233319</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B66" t="n">
+        <v>234980</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B67" t="n">
+        <v>234929</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B68" t="n">
+        <v>216539</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B69" t="n">
+        <v>218811</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B70" t="n">
+        <v>217568</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B71" t="n">
+        <v>212345</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B72" t="n">
+        <v>216443</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B73" t="n">
+        <v>209472</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B74" t="n">
+        <v>200641</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B75" t="n">
+        <v>196652</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B76" t="n">
+        <v>196323</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B77" t="n">
+        <v>209151</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B78" t="n">
+        <v>195614</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B79" t="n">
+        <v>199203</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B80" t="n">
+        <v>187520</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B81" t="n">
+        <v>196718</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B82" t="n">
+        <v>203923</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B83" t="n">
+        <v>220007</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B84" t="n">
+        <v>207725</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B85" t="n">
+        <v>208305</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B86" t="n">
+        <v>197385</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B87" t="n">
+        <v>221500</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B88" t="n">
+        <v>218033</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B89" t="n">
+        <v>224429</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B90" t="n">
+        <v>216647</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B91" t="n">
+        <v>212142</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B92" t="n">
+        <v>213011</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B93" t="n">
+        <v>200068</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B94" t="n">
+        <v>183507</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B95" t="n">
+        <v>179905</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B96" t="n">
+        <v>180356</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B97" t="n">
+        <v>181964</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B98" t="n">
+        <v>182346</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B99" t="n">
+        <v>185468</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B100" t="n">
+        <v>186359</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B101" t="n">
+        <v>187090</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>remn_amt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B2" t="n">
+        <v>170985</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B3" t="n">
+        <v>171135</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B4" t="n">
+        <v>171170</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B5" t="n">
+        <v>172676</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B6" t="n">
+        <v>173638</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B7" t="n">
+        <v>172746</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B8" t="n">
+        <v>172603</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B9" t="n">
+        <v>170940</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B10" t="n">
+        <v>173869</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B11" t="n">
+        <v>170408</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B12" t="n">
+        <v>173765</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B13" t="n">
+        <v>181657</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B14" t="n">
+        <v>178272</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B15" t="n">
+        <v>147658</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B16" t="n">
+        <v>138601</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B17" t="n">
+        <v>136905</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B18" t="n">
+        <v>136218</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B19" t="n">
+        <v>141389</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B20" t="n">
+        <v>134814</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B21" t="n">
+        <v>135253</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B22" t="n">
+        <v>131631</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B23" t="n">
+        <v>132614</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B24" t="n">
+        <v>132418</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B25" t="n">
+        <v>132739</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B26" t="n">
+        <v>142276</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B27" t="n">
+        <v>128902</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B28" t="n">
+        <v>130926</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B29" t="n">
+        <v>133933</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B30" t="n">
+        <v>131352</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B31" t="n">
+        <v>135782</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B32" t="n">
+        <v>138799</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B33" t="n">
+        <v>142983</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B34" t="n">
+        <v>123878</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B35" t="n">
+        <v>119906</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B36" t="n">
+        <v>116647</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B37" t="n">
+        <v>118503</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B38" t="n">
+        <v>119897</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B39" t="n">
+        <v>119396</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B40" t="n">
+        <v>124302</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B41" t="n">
+        <v>126109</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B42" t="n">
+        <v>124011</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B43" t="n">
+        <v>138725</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B44" t="n">
+        <v>139572</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B45" t="n">
+        <v>141068</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B46" t="n">
+        <v>142020</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B47" t="n">
+        <v>150415</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B48" t="n">
+        <v>146591</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B49" t="n">
+        <v>147140</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B50" t="n">
+        <v>144887</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B51" t="n">
+        <v>145381</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B52" t="n">
+        <v>140762</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B53" t="n">
+        <v>142963</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B54" t="n">
+        <v>152492</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B55" t="n">
+        <v>150463</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B56" t="n">
+        <v>148116</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B57" t="n">
+        <v>132477</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B58" t="n">
+        <v>128325</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B59" t="n">
+        <v>128930</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B60" t="n">
+        <v>126743</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B61" t="n">
+        <v>118923</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B62" t="n">
+        <v>121446</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B63" t="n">
+        <v>118169</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B64" t="n">
+        <v>119473</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B65" t="n">
+        <v>115760</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B66" t="n">
+        <v>113480</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B67" t="n">
+        <v>108945</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B68" t="n">
+        <v>106350</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B69" t="n">
+        <v>107766</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B70" t="n">
+        <v>106222</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B71" t="n">
+        <v>102641</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B72" t="n">
+        <v>103099</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B73" t="n">
+        <v>101805</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B74" t="n">
+        <v>104881</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B75" t="n">
+        <v>102886</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B76" t="n">
+        <v>100535</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B77" t="n">
+        <v>101629</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B78" t="n">
+        <v>103331</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B79" t="n">
+        <v>101268</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B80" t="n">
+        <v>100948</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B81" t="n">
+        <v>100920</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="B82" t="n">
+        <v>103299</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B83" t="n">
+        <v>99423</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B84" t="n">
+        <v>97142</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B85" t="n">
+        <v>100419</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B86" t="n">
+        <v>92836</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B87" t="n">
+        <v>98423</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B88" t="n">
+        <v>100080</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B89" t="n">
+        <v>101271</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B90" t="n">
+        <v>101584</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B91" t="n">
+        <v>83370</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B92" t="n">
+        <v>81373</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B93" t="n">
+        <v>79401</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B94" t="n">
+        <v>79063</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B95" t="n">
+        <v>79118</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B96" t="n">
+        <v>77563</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B97" t="n">
+        <v>76964</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B98" t="n">
+        <v>77357</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B99" t="n">
+        <v>80236</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B100" t="n">
+        <v>79254</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B101" t="n">
+        <v>78902</v>
       </c>
     </row>
   </sheetData>
